--- a/data/case1/14/Plm1_14.xlsx
+++ b/data/case1/14/Plm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.052052365863332284</v>
+        <v>-0.064295737209334902</v>
       </c>
       <c r="B1" s="0">
-        <v>0.051855759939400059</v>
+        <v>0.064008895235105001</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.030322783887916316</v>
+        <v>0.035044934505112479</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.030861263254527316</v>
+        <v>-0.035672774014473774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.13379134831505723</v>
+        <v>0.13860259853998258</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.1343425478829765</v>
+        <v>-0.13922053783227639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14965026883622556</v>
+        <v>-0.14476978134600316</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14900120307643405</v>
+        <v>0.14412070673814625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14300120340129485</v>
+        <v>-0.13812070727812742</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14171486567475888</v>
+        <v>0.13683311301718692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.079978098969717859</v>
+        <v>-0.040457770617020827</v>
       </c>
       <c r="B6" s="0">
-        <v>0.079898432916815754</v>
+        <v>0.040438006713475083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.095891819848890947</v>
+        <v>-0.020438007356913701</v>
       </c>
       <c r="B7" s="0">
-        <v>0.095348346346760593</v>
+        <v>0.02041793884737686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.075348346749946948</v>
+        <v>-0.00041793949230051197</v>
       </c>
       <c r="B8" s="0">
-        <v>0.074851980314998734</v>
+        <v>0.00040004899597789745</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.045758397109477933</v>
+        <v>-0.038048316313604502</v>
       </c>
       <c r="B9" s="0">
-        <v>0.045605066892290047</v>
+        <v>0.037850574482414245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.039605067243634551</v>
+        <v>-0.031850575046405538</v>
       </c>
       <c r="B10" s="0">
-        <v>0.039586434133873638</v>
+        <v>0.031825063050696656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051475813507416035</v>
+        <v>-0.027325063605704969</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051396739030746375</v>
+        <v>0.027281581871847038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045396739383745555</v>
+        <v>-0.021281582436853963</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045151970935787489</v>
+        <v>0.021151925580523034</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915197129443726</v>
+        <v>-0.039147128081051363</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039085303743064514</v>
+        <v>0.039082492959884974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027085304130191723</v>
+        <v>-0.027082493569054122</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053054792587794</v>
+        <v>0.027051345324177412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105305515429734</v>
+        <v>-0.021051345897775242</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02102767145722062</v>
+        <v>0.021026830601701185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.01502767182017406</v>
+        <v>-0.015026831176803146</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004496032397174</v>
+        <v>0.015004283176844879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004496396967987</v>
+        <v>-0.0090042837541064458</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999996216807432</v>
+        <v>0.0089999994037626152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.072178544169872794</v>
+        <v>-0.089053830305331871</v>
       </c>
       <c r="B18" s="0">
-        <v>0.072105956811356009</v>
+        <v>0.088921956940129832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.06310595715020062</v>
+        <v>-0.0799219575004253</v>
       </c>
       <c r="B19" s="0">
-        <v>0.062565071034807129</v>
+        <v>0.07887667828971523</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.053565071380766938</v>
+        <v>-0.018013947379062145</v>
       </c>
       <c r="B20" s="0">
-        <v>0.053453978577632455</v>
+        <v>0.018004354550580359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043549094689368</v>
+        <v>-0.0090043551276650646</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999996521226144</v>
+        <v>0.0089999994224934099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093930085397877505</v>
+        <v>-0.093929825083172602</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093622727181664089</v>
+        <v>0.093622704774215748</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622727521936447</v>
+        <v>-0.084622705335425152</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124500073943231</v>
+        <v>0.084124422048263092</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124500566400158</v>
+        <v>-0.042124422822398699</v>
       </c>
       <c r="B24" s="0">
-        <v>0.04199999950490696</v>
+        <v>0.041999999222049667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.05573676703961894</v>
+        <v>-0.090375342955940852</v>
       </c>
       <c r="B25" s="0">
-        <v>0.05566805506659378</v>
+        <v>0.090208864979704373</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.049668055401248523</v>
+        <v>-0.084208865537387823</v>
       </c>
       <c r="B26" s="0">
-        <v>0.049585855268048817</v>
+        <v>0.083998062154488906</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.043585855603693879</v>
+        <v>-0.077998062714602412</v>
       </c>
       <c r="B27" s="0">
-        <v>0.043325161126670508</v>
+        <v>0.077291043003246962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.037325161466003287</v>
+        <v>-0.071291043574615465</v>
       </c>
       <c r="B28" s="0">
-        <v>0.037161714774685883</v>
+        <v>0.070815172443280616</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062513055613727886</v>
+        <v>-0.058815173059286963</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062162726099755261</v>
+        <v>0.058596736743515621</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042162726506011161</v>
+        <v>-0.038596737412683435</v>
       </c>
       <c r="B30" s="0">
-        <v>0.04201918423651696</v>
+        <v>0.038497533000890982</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.02701918462379993</v>
+        <v>-0.023497533643647373</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000866080193475</v>
+        <v>0.023483872611308243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060008664947872603</v>
+        <v>-0.0060006365187499355</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999652043897</v>
+        <v>0.0059999994123254297</v>
       </c>
     </row>
   </sheetData>
